--- a/500all/speech_level/speeches_CHRG-114hhrg94939.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94939.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. We want to call the hearing to order.    And I would like to recognize myself for 5 minutes for an opening statement.    We welcome each of our witnesses and appreciate your willingness to be here today to talk about the final coal ash rule released by EPA in December.    We are eager to hear from the administration. We hope Mr. Stanislaus will be able to provide some clarification about the implementation of the final rule and, also, answer some questions and address some concerns.    We will hear from a number of stakeholders regarding their initial impressions of the final rule and any concerns they may have, and we will also discuss the final rule in comparison to the legislation we considered through this committee to the floor of the House the last couple of Congresses.    First, I would like to commend the EPA for getting the final rule out in time to meet the court-ordered deadline. Weighing in at over 700 pages, I am sure that that was no small undertaking.    I would also like to acknowledge that, in finalizing the rule, the Agency faced a genuine dilemma, create an enforceable permit program for coal ash under subtitle C and designate coal ash as a hazardous waste or promulgate self-implementing standards for managing coal ash as nonhazardous waste under subtitle D.    I am pleased to note that EPA chose to regulate coal ash under subtitle D, which will help ensure that coal ash continues to be beneficially reused like this.    However, because of the way subtitle D is currently drafted, EPA did not have the authority it needed to create a permit program for coal ash.    Instead, the final rule lays out an entirely self-implementing program that will be enforced through citizen suits and will unavoidably lead to an unpredictable array of regulatory interpretations as judges throughout the country are forced to make extremely technical compliance decisions that would be better left to a regulatory agency.    The final rule also sets up a dual regulatory program. EPA strongly encourages--and I quote--``for States to incorporate the requirements into their solid waste management plan.''    However, as currently drafted, RCRA does not allow State coal ash programs to operate in lieu of the Federal requirements in the final rule, meaning, even if States adopt the Federal requirements or requirements that are more stringent, the Federal requirements remain in place and utilities must comply with both the State and Federal requirements.    There are some other provisions in the rule that are potentially troublesome and that we hope to discuss today, including the retroactive application of location or siting restrictions and the requirements that unlined impoundments that exceed a groundwater protection standard close with no opportunity to remedy the problem through corrective action.    Last, but not least, EPA has removed the flexibility of the correction action program as it exists for other programs under subtitle D. It is understandable that the Agency may feel the need to tighten certain restrictions because the rule is self-implementing.    However, by removing flexibility regarding the boundary which compliance must be demonstrated and flexibility to determine the appropriate cleanup levels and eliminating cost as a factor that can be considered in completing corrective action, the final rule jeopardizes the future of risk-based cleanup decisions at coal ash disposal units.    The removal of this flexibility also creates uncertainty with respect to ongoing cleanups at coal ash disposal facilities.    While we acknowledge the amount of time and effort EPA put into drafting the final rule, because of the significant limitations of the rule, we still believe that a legislative solution might be required that would set minimum Federal standards and allow States to develop enforceable permit programs to implement the standards, which we think could still be the best approach in dealing with coal ash.    I can assure you that we intend to be thoughtful with respect to the requirements in the final rule and how they differ from the legislation that we moved through this committee and the House during the last Congress, and we will update the legislation as necessary.    As Mr. Stanislaus pointed out when he spoke with us last time, there are some important issues that our previous bills did not address, in particular, regulation of inactive impoundments. We will address these units as we move forward.    I would like to thank the administration for all the cooperation we have received to date on this issue. EPA has been constructive and helpful both with our legislative efforts during the last Congress and recently as we worked through the issues with the final rule. We appreciate all our witnesses for being here.    I would also thank Mr. McKinley, who has been a driving force behind moving this legislation and for his continued leadership on this issue.    And I would like to express my appreciation for fellow committee Members for sticking with us as we continue to push forward to ensure that effective regulation of coal ash.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Chair Shimkus.    And on the outset, let me just indicate how pleased I am to be able to work as ranking member on this subcommittee with you. I appreciate the fact that our respective parties have asked us to lead the efforts with what I think is very important work that comes under the overview of this subcommittee.    So I believe we will have a very productive session, and I look forward to it. So congratulations on your continued leadership.    Good morning. And, again, thank you, Chair Shimkus, for holding this hearing on the Environmental Protection Agency's final rule to establish minimum national standards for the disposal of coal ash.    Over the years, communities have been subjected to risks due to air and water pollution associated with inadequate management of coal ash disposal. Spills resulting from coal ash impoundment failures have polluted water supplies, destroyed private and public properties, and resulted in lengthy and expensive cleanup efforts. I am certain that the residents of these unfortunate communities feel this rule is long overdue.    EPA is to be commended for its extensive process of public engagements on this issue. The Agency sorted through over 450,000 public statements submitted during the public comment period on the rule and held eight public hearings in communities across our country.    EPA's rule is responsive to industry concerns that classifying coal ash as hazardous waste would harm coal ash recycling efforts that utilize coal ash in new materials and new products, and it is responsive to the concerns of public health and environmental advocates because, for the first time, we have Federal standards for coal ash disposal sites that will set a floor of protection for all communities.    Of course, the rule from either vantage point is not perfect. Given the disparate opinions on what would constitute appropriate Federal regulation of coal ash disposal, that is not too surprising.    The rule has quieted the debate on this issue somewhat. But, of course, there are still differing opinions about how coal ash should be classified and regulated, and we will hear some of these opinions here today.    I would have preferred to see a stronger regulation, given the substantial risks and tremendous damage and cost of recent spills, especially the one experienced in Tennessee in 2008. But with this rule in place, States and utilities can begin to address deficiencies in disposal operations. Communities will gain access to information about coal ash disposal facilities and have a benchmark from which to compare performance against expectations.    Now that the rule is final, the work of implementation begins. Ultimately, that is the only real test of whether this rule takes the correct approach or not, and it will take some time to evaluate whether its implementation will achieve the goals of safe management of coal ash disposal. I believe it is this subcommittee's job to continue in its oversight of this issue and others going forward.    We will have witnesses today who will advocate for changes to this regulation or to the underlying law, and I think that either approach is premature. I would observe that changes in regulation or in law do indeed take a long time and hitting the restart button now would only lead to continued uncertainty and risk. We have had far too much of those already.    This rule was years in the making. And, as I said earlier, I would have preferred to see a stronger regulation, but I am not willing to second-guess an approach that has yet to be implemented or evaluated and one that rests on the extensive public engagement and negotiating process and years of work invested by the interested parties and the Agency. This rule should move forward. We should give this approach an opportunity to work and monitor it closely to evaluate its effectiveness.    So let's get on with it. As we go forward, we will see how well this approach works. We certainly retain all options for action if it does not.    I thank all of our witnesses for appearing today and for their invaluable contributions to the public process that moved this rule forward.    Again, I thank our chair, Chair Shimkus, for calling this important hearing. I look forward to working with you on this issue and the other issues in this jurisdiction of our subcommittee as we begin our work in this 114th Congress.    And, with that, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman.    Today our multiyear quest to solve the coal ash issue continues in this new Congress. And I want to particularly thank all of our witnesses for appearing today and welcome back a frequent guest, EPA Assistant Administrator Stanislaus.    You have worked, clearly, long and hard on coal ash and have always engaged with us very constructively, and we appreciate that.    Navigating this issue is a tough job and, in our view, much more difficult by gaps in current law. Most of us can agree that coal ash does not warrant regulation as a hazardous material, and I am glad that EPA agrees. But there is no authority in the law that allows for a State-based permitting program for nonhazardous waste.    When the Federal court set a December 2014 deadline for EPA to publish a final rule for coal ash, we looked at the legal constraints and questioned whether EPA's rule would be the last word on the subject.    We, along with some of the witnesses who we will hear from today, are still asking the same thing, and we are left even with more questions: If we don't legislate, how will EPA's rule be implemented and enforced? Will there be a dual program in each State, one Federal and one State-based? Can we expect a dramatic increase in citizen suits?    The current regulatory path contains risks for all sides and could lead to even greater uncertainty and expense. Mr. McKinley's bipartisan bill in the last Congress went a long way towards solving the challenges with coal ash management. The legislation recognized that States like Michigan were already running successful disposal programs, and it allowed States to continue to use their localized regulatory expertise.    I appreciated EPA's input in our legislative process. The Agency acknowledged some of the advantages of our legislation and asked for some changes, many of which we made to the bill. Our goal is to get the job done right, and we are willing to discuss further changes to the legislation to ensure that we have a workable solution in place.    We want to continue working with Members in both bodies, in both parties, to achieve the best overall outcome. We will continue to work with our stakeholders, the States, the utilities, co-ops, coal ash recyclers, and other advocates.    Our goals are threefold: Put the right protections in place; put coal ash generators and users straightforward standards and procedures to follow; and grant States the authority that they need to implement and enforce Federal standards while taking into account distinct local conditions.    Mr. Chairman, with all of the innovative ideas and continued refinement that has gone into legislation over the last couple years, I welcome the opportunity to once again listen to stakeholders as we chart a path forward.                 Prepared statement of Hon. Fred Upton    Today, our multiyear quest to solve the coal ash issue continues in this new Congress.    I want to thank all of our witnesses for appearing today and welcome back a frequent guest, EPAAssistant Administrator Stanislaus. Mathy, you have worked long and hard on coal ash and have always engaged with us very constructively. Navigating this issue is a tough job, and in our view, made more difficult by gaps in current law.    Most of us can agree that coal ash does not warrant regulation as a hazardous material, and I am glad EPA agrees, but there is no authority in the law that allows for a State-based permitting program for nonhazardous waste.    When the Federal court set a December 2014 deadline for EPA to publish a final rule for coal ash, we looked at the legal constraints and questioned whether EPA's rule would be the last word on the subject. We, along with some of the witnesses who we will hear from today, are still asking the same thing and are left with even more questions.    If we don't legislate, how will EPA's rule be implemented and enforced? Will there be a dual program in each State, one Federal and one State-based? Can we expect a dramatic increase in citizen suits?    The current regulatory path contains risks for all sides, and could lead to even greater uncertainty and expense.    Mr. McKinley's bill in the last Congress went a long way toward solving the challenges with coal ash management. The legislation recognized that States like Michigan were already running successful disposal programs, and it allowed States to continue to use their localized regulatory expertise.    I appreciated EPA's input in our legislative process. The Agency acknowledged some of the advantages of our legislation and asked for some changes, many of which we made to the bill.    Our goal is to get the job done right, and we are willing to discuss further changes to the legislation to ensure we have a workable solution in place. We want to continue working with members in both bodies and both parties to achieve the best overall outcome.    We will also continue to work with our stakeholders: the States, the utilities and co-ops, the coal ash recyclers, and other advocates.    Our goals are threefold: put the right protections in place; give coal ash generators and users straightforward standards and procedures to follow; and grant States the authority they need to implement and enforce Federal standards while taking into account distinct local conditions.    Mr. Chairman, with all of the innovative ideas and continued refinement that has gone into legislation over the last 4 years, I welcome the opportunity to once again listen to stakeholders as we chart the path forward. I look forward to the testimony and to our members' questions.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    Job creators detest uncertainty. And let's make one thing clear: This proposed regulation does not provide certainty. Now, in the spirit of the Super Bowl upcoming, let me explain with an analogy.    If a quarterback knew what defense was going to be put up against him, he knew with certainty what defense, he would logarithmically likely be able to move the ball down the field much more easily if he knew with certainty what he faces. And this is what applies to this regulation. It provides no certainty to the business community.    Let me give you three examples. And you have already heard our two chairmen talk about that. But let me reinforce it again. The rule results in potentially conflicting Federal and State requirements. Federal judges in neighboring jurisdictions could make contradictory decisions regarding compliance.    But more damaging is on page 18 of the rule. It says--and I quote--``This rule defers a final determination until additional information is available.'' That is not acceptable. How many times must there be a final determination that coal ash is not hazardous and be handled in a different way?    In the 112th and the 113th Congresses, the House passed legislation codifying the conclusions that were rendered in the 1993 and 2000 reports offered by the EPA. We are trying to develop certainty, certainty not just to the business community, but to the health of the people we are trying to protect.    In fact, Mr. Stanislaus--and I thank you very much because we have had a very good working relationship--you said in 2013 that the legislation that we passed was something that you could work with. That is what we want to keep working with. We want to keep that relationship going to come up with certainty how that could go.    So the bottom line, unfortunately, is we have a regulation that doesn't provide certainty. It would be wise for the committee to once again pass the legislation that we have done over the last 2 years and bring closure to this issue. Thank you.    And I yield back my time.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I also wanted to start by congratulating my colleague from New York, Mr. Tonko, on continuing his role as ranking member of this important subcommittee.    And I think I can speak for all the Members on our side of the aisle when I say that we appreciate your expertise and leadership on environmental issues, Paul.    Let me just turn to the topic today. I would like to commend the EPA for finalizing national criteria for coal ash disposal. These criteria will for the first time provide the framework for addressing this serious environmental problem.    Unsafe disposal of coal ash poses serious threats to human health and the environment. The three primary risks are groundwater contamination, fugitive dust, and catastrophic failure of wet impoundments. And I am happy to say that each of these risks is addressed in the EPA's new rule.    EPA first determined that national disposal criteria were needed for coal ash in the year 2000. That was 15 years ago now. And the need for this rule has only become clearer.    We now have 157 documented cases of damage to human health in the environment from unsafe coal ash disposal. It is possible that, with the monitoring required under this rule, that number will only go up because more contamination will be detected.    This rule is the product of a robust public process, including field hearings and several rounds of public comment. It reflects the input of over 450,000 commenters, including States, industry groups, environmental groups, and individual concerned citizens, and it addresses many of the concerns that this subcommittee has heard in past hearings.    By proceeding under subtitle D, EPA addressed concerns about stigma raised by industry. By laying out a framework for States to incorporate the regulations into existing programs, EPA addressed State concerns. And by requiring public reporting of monitoring data and addressing some legacy sites, EPA addressed many concerns raised by environmental advocates.    We will hear today that not everyone is satisfied with the rule. Certainly many in the environmental community argue that only a subtitle C rule would protect human health. And it is possible that the self-implementing nature of the rule could lead to inconsistent compliance.    But, as a whole, the rule is an important step forward. The rule will offer important protections for human health in the environment, including many important protections that were not part of past legislative proposals.    Now, as we look ahead in this subcommittee, I think the publication of this final rule changes our role. We are no longer called upon to set national criteria and statute because those criteria have been set through a robust transparent process.    Instead, we will have to monitor compliance and conduct oversight of the rule's novel implementation structure, and I hope we can conduct that oversight in a bipartisan manner.    Again, I applaud EPA for their hard work and look forward to the testimony.    And I would yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Stanislaus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stanislaus. Good morning, Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee.    I am Mathy Stanislaus, U.S. EPA Assistant Administrator for the Office of Solid Waste and Emergency Response. And I and my staff have had the privilege of working the last 5 \\1/2\\ years to actually get it right in terms of putting a rule in place that is protective and address the risks that we have identified.    On December 19, as Members know, EPA finalized the coal ash rule. This rule established the first ever national rule for the safe disposal of coal combustion residuals in landfill and surface impoundments.    The 2008 catastrophic failure of the CCR impoundment at Tennessee Valley's Kingston facility, EPA's risk assessment, and the 157 cases in which CCR mismanagement has caused damage to human health and the environment clearly demonstrate that improper management of coal ash poses an unacceptable risk to human health and the environment.    We believe this groundbreaking rule is a culmination of extensive studies on the effects of coal ash on the environment and public health. The rule establishes technical requirements for landfills and surface impoundments under subtitle D of the Resource Conservation and Recovery Act.    In developing this final rule, EPA carefully evaluated more than 450,000 comments, testimony from eight public hearings, supplemented by three separate public comments on data, which is the foundation of the rule. The rule is a strong, effective approach that provides critical protection to communities across the Nation by helping to protect our water, land, and air.    The rule protects groundwater by requiring utilities to conduct groundwater monitoring, immediately cleaning up contaminated groundwater, closing unlined impoundments that are contaminating groundwater, and requiring the installation of liners for new surface impoundments and landfills.    It protects communities against catastrophic failure of impoundments by requiring specific design criteria, inspections and engineering testing, and to retrofit or close impoundments that fail testing. It protects communities from CCR dust by requiring an air control plan.    Further, the rule provides States and communities the information they need to fully engage in the rule's implementation. The rule requires utilities to post information on all aspects of its compliance with the rule on publicly available Web sites to help ensure States and the public have access to information to monitor utilities' compliance with the rule.    The rule has been designed to provide electric utilities and independent power producers generating coal ash with a practical approach for safe coal ash disposal and has established reasonable implementation timelines for this to occur.    We strongly recognize the important role that our State partners play in implementation and ensuring compliance with environmental regulations. EPA is committed to working closely with our State partners on rule implementation.    And as a major component of this rule, States can align their programs with the Federal rule by utilizing the solid waste management plan in process and submit revisions limited to incorporating the coal ash Federal requirements for EPA for approval.    The solid waste management plan can demonstrate how the State program has incorporated the rule's minimum criteria utilizing State permit or other processes and can highlight those areas where State regulations want to be more stringent or otherwise go beyond the Federal minimum criteria.    EPA will be working with the States to develop a template for a streamlined process for developing and approving a solid waste management plan. Of course, the final rule does not preclude a State from adopting more stringent requirements, should it choose to do so.    I should note that States will have adequate time to develop the solid waste management plan and seek EPA's approval and conduct the necessary public process because the major elements of the rule is at least 18 months from today.    Further, the rule supports the sound beneficial use of coal ash. The final rule does not change the current Bevill exemption nor regulate coal ash that are beneficially used. The rule distinguishes between beneficial use and disposal to provide certainty to the regulated community and to users of coal ash.    We have separately established methodology for coal ash users to analyze their products, and we have, in fact, applied that methodology to demonstrate that in concrete and wallboard--that we have confirmed its continued use.    I will close by noting that we believe this is a tremendous milestone to protect communities and the environment in which we live and work, and EPA is committed to working with our State partners, local communities, and utilities on the implementation. And I look forward to your questions.</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    Mr. Stanislaus, in light of the fact that the final rule requires the cleanup level to be set at either the MCL or the background level, if a State chooses to incorporate risk-based decisionmaking into the coal ash permit programs that establish an alternative groundwater protection standard, would EPA be able to approve the State plan as being as stringent or more stringent than the final rule?</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman. And I want to thank you for convening this hearing on this final rule.    Many of my constituents were concerned by the proposed rule on coal-ash disposal because of concerns that it might limit beneficial reuse on the one hand or fail to protect the public health on the other. But I am generally pleased with this rule. EPA has protected beneficial reuse and put in criteria that will ensure safe disposal.    Mr. Stanislaus, I would like to ask you just a few questions.    The final rule prevents or restricts--does EPA's new final rule prevent or restrict beneficial reuse of coal in any way?</t>
   </si>
   <si>
@@ -406,9 +382,6 @@
     <t>412555</t>
   </si>
   <si>
-    <t>Kevin Cramer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cramer. Thank you, Mr. Chairman.    And thank you for being here and for your good work on the rule.    I just have one area--I am going to continue on this line of exploring a little bit on the self-implementing piece, because I spent a number of years on the North Dakota Public Service Commission, carried the coal reclamation portfolio. And the one thing that I heard a lot, especially in--whatever the case might have been, but whenever we were challenged in court--and we were plenty of times, and we always prevailed as a commission, not because our lawyers were superior or anything like that--although we had good lawyers, don't get me wrong--but because the courts in highly technical matters just always defer to the experts, to the administrative agency.    And so this self-implementing thing just makes me a little nervous. And if it makes me a little nervous as a former regulator, I can only imagine how nervous it makes the industry. And it just seems to me that we could tighten it up and provide the certainty that everybody is talking about without compromising in any way, really, the protections that we are trying to accomplish and, in fact, I think, you know, should be to the benefit of everybody on all sides.    Am I wrong there? Is there a better reason to do it this way, to do the self-implementing?</t>
   </si>
   <si>
@@ -424,9 +397,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman. Thanks for holding the hearing.    Mr. Stanislaus, how many tons of coal ash are produced in a year in this country?</t>
   </si>
   <si>
@@ -499,9 +469,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman.    And, Mr. Stanislaus, thank you for joining us today.    I want to give you a quote in the answer to the question about having multiple opinions of judges determine how the enforcement is carried out. You said, ``We don't anticipate any issues in that regard.''    I will tell you, from a real-world perspective, any time that you don't have the right type of rulemaking, you will have that instability, if you will, in the real world in terms of the enforcement process. And not only could you have it among the States, you could have it within a State, because you have multiple district judges that will make their own technical opinion. So I urge you to keep that under consideration as you move forward.    This gets into the law, if you will, and that is, in terms of legacy sites, walk us through how the EPA believes that it has the authority to regulate legacy sites. And, in particular, I would need the specific reference to RCRA, if that is what you are relying upon to make the rules.</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman.    And, Mr. Administrator, thanks very much for being with us today.    If I could just go back, I know that there has been a lot of discussion already on the beneficial use of coal ash, and I know we have had different panels in here over the last couple years talking about it. One of the things I know that you had mentioned a little bit earlier, because when you said in your testimony that approximately 40 percent of CCR generated in 2012 was beneficially used--but, again, in the testimony that we have heard, you know, we have States out there that are saying, boy, if the EPA would ever change its mind, we are going to require buildings to have things ripped out or something like that, so you got school districts saying, we don't want to use material that might in the future have some kind of EPA coming back and saying that it could be hazardous.    When you use the term ``certainty'' that you have mentioned, what is the certainty that the EPA can give to folks out there that there is not going to be a change? Because, again, if it is road material or it is block material--but it is that material that is actually being used inside of a building that a lot of folks are worried about, school districts are worried about.    So how do you define ``certainty''? And how do we make sure that the folks out there have that certainty of mind that the EPA is not going to change in a couple years what they are defining as a hazardous or nonhazardous material?</t>
   </si>
   <si>
@@ -580,9 +544,6 @@
     <t xml:space="preserve">    Mr. Shimkus. The gentleman yields back his time.    The Chair now recognizes a new member of the subcommittee, Mr. Cardenas from California, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you very much, Mr. Chairman. And thank you so much for having this hearing.    Mr. Stanislaus, I would just like to ask you your--do you have a technical background?</t>
   </si>
   <si>
@@ -646,18 +607,12 @@
     <t xml:space="preserve">    Mr. Shimkus. You are more than welcome. It is great to have you on the subcommittee. And we could provide you some coal ash, if you would like some, in the L.A. Basin on some railcars. How about that?    So we want to thank you for coming. Again, great work. We will listen to the second panel and see what--I would expect that we would try to maybe look at some of these tweaks that you have heard about today.    And, with that, we will dismiss you and we will empanel the second panel. So thank you very much for coming.    So, as our second panel is being seated, just for the sake of time, I am going to--I have done this numerous times, and I always mess up. So I think I will just do the introduction of each person right before they give the 5-minute opening statement.    Our panelists all know that their full statement is submitted for the record. And just based on time, and we don't know when the votes are, we won't be mean about the 5 minutes, but we would like for you to adhere to that as best as possible.    So, with that, I am going to turn to the second panel and, first, Mr. Thomas Easterly, who is the commissioner of the Indiana Department of Environmental Management.    We are very happy to have you here. And, sir, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Easterly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Easterly. Thank you, Chairman Shimkus and Ranking Member Tonko and members of the subcommittee.    Good morning. My name is Thomas Easterly, and I am the commissioner of the Indiana Department of Environmental Management, also known as IDEM, and I bring you greetings from Governor Pence of Indiana also. And we appreciate the opportunity to share Indiana's views on the EPA's final coal combustion residuals rule, which we call ``CCR'' on occasion.    I am also representing the Environmental Council of the States, which we call ``ECOS,'' whose members are the leaders of the State and territorial environmental protection agencies.    ECOS has worked on the CCR issue for many years, and our resolution on CCR regulation was first passed in 2008 and has been reaffirmed as recently as 2013. While EPA's final rule responds to some of the concerns outlined in ECOS's resolution, other longtime State concerns remain unaddressed.    As an initial point, I express agreement with EPA's finding that coal ash is not a hazardous waste and that coal ash can be safely and beneficially reused. EPA's use of RCRA Subtitle D for coal ash is consistent with ECOS's resolutions.    As a longtime regulator, I have observed firsthand the tragic adverse environmental and human health impacts of CCR surface impoundment failures. These structural engineering failures devastate people's lives, destroy property, and contaminate natural resources. The EPA's self-implementing rule contains robust national structural integrity provisions which should result in a meaningful reduction in CCR impoundment failures in the future.    The rule also creates a consistent national set of requirements, many of which are already in place in various States, to prevent adverse environmental impacts to our water and air. Units unable to meet the new criteria will have to close. So they will be solving the problem.    Most important to IDEM and other States is that EPA's final rule explicitly recognizes the major role State regulatory agencies currently have and should continue to maintain in overseeing CCR. However, by finalizing a self-implementing rule that can only be enforced through citizen supervisions of RCRA, the role of State regulation, oversight, and enforcement will be significantly marginalized.    EPA envisions that the key State role in this program will be maintained by States amending their solid waste management plans to incorporate the new Federal requirements. EPA expects that, once approved by EPA, the amended plans will receive deference by the courts and citizens.    While the requirements of the rule are self-implementing for the regulated units, the rule schedules and requires States to achieve final solid waste management plan amendment, with EPA approval, on a schedule which cannot be met by many States, including Indiana.    In order to ensure transparency, Indiana's laws require my agency, IDEM, to have four public notices, with associated comment periods, for new regulatory action. This public process normally takes at least 18 months, yet some of the self-implementing deadlines in this regulation are as short as 6 months, making it impossible for Indiana to have regulations in place to implement those portions of the rule.    Yet, after the State plan is amended and approved by EPA, the new CCR rules will remain independently enforceable through RCRA citizen suits in Federal district courts. EPA does not have the legal authority under RCRA Subtitle D to delegate the new rules to the States.    I would now like to address the need for a legislative amendment to RCRA on CCR issues.    ECOS testified before this committee in April 2013 in support of the bipartisan efforts in the House and Senate to create a Federal program that allows States to regulate coal-ash management and disposal under a set of Federal standards created directly by Congress and implemented by the States.    Legislation still would be beneficial in several ways to achieving this goal. First, legislation could codify EPA's determination that coal ash is nonhazardous and get the going-back-and-forth concern done forever. Second, State programs simply cannot operate in place of the Federal program without legislation. Third, legislation can add certainty to the process of EPA approving State solid waste management plans by making clear the criteria EPA would apply to determine whether a State program meets the Federal CCR standards. And, fourth, legislation could enhance and clarify enforcement of CCR requirements.    Mr. Chairman, Mr. Ranking Member, and members of the subcommittee, I thank you for the opportunity to present my views and those of ECOS to you today, and I am happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    And I failed to do it and will do it with Mr. Forbeck, but I would also mention that you are representing the Environmental Council of the States. And they have been very helpful in the process. We look forward to working with you.    And now I want to recognize for 5 minutes Mr. Michael Forbeck, Environmental Program Manager from the Pennsylvania Department of Environmental Protection, Bureau of Waste Management, and on behalf of ASTSWMO.    So you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Forbeck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbeck. Good morning, Chairman Shimkus and Ranking Member Tonko and members of the subcommittee. My name is Michael Forbeck, and I am president of the Association of State and Territorial Solid Waste Management Officials, ASTSWMO, and I am here on behalf of ASTSWMO to testify.    ASTSWMO's association represents the waste management remediation programs of 50 States, 5 territories, and the District of Columbia. Our membership includes State program experts with the individual responsibility for the regulation and management of solid and hazardous waste.    Thank you for the opportunity to provide testimony on the EPA final rule on disposal of coal combustion residuals from electric utilities. The rulemaking has been of longstanding importance to ASTSWMO. We were very pleased to see and are in full agreement with EPA's promulgation of the final rule under Subtitle D of the Resource Conservation and Recovery Act.    The focus of my testimony is on the issue of dual State and Federal regulatory authority we see as the result of the final rule's self-implementing construct. We are not offering testimony on specific technical requirements in the rule, as groups with ASTSWMO are looking at these as well as beneficial-use components, and we will have additional input on the specific provisions at a later time.    EPA has issued the rule under Subtitle D, part 257, which is self-implementing. The RCRA statutory basis for part 258, however, governing municipal solid waste landfills includes requirements for States to develop and implement a permit program to incorporate the Federal criteria and for EPA to determine whether those permit programs are adequate to ensure compliance with the criteria.    In ASTSWMO's comments to EPA regarding the 2010 proposed rule, we pointed out that self-implementing standards would set up a dual State and Federal regulatory regime for owners and operators that would be problematic for the effective implementation of the requirements of the CCR facilities. ASTSWMO recommended that a final rule under part 257 include explicit language that EPA views compliance with a State program that meets or exceeds the Federal minimum criteria as compliance with that Federal criteria.    We appreciate EPA hearing our concerns about dual State and Federal regulatory authority and their efforts, working within the bounds of their statutory authorities, to provide a mechanism through the State solid waste management plans to address our concerns. However, we see difficulties with the State plan mechanism, which are as follows:    One is timing. In order for States to adopt these minimum standards by amending their solid waste management plans, thereby avoiding dual regulatory authority in theory, the process would have to be completed within 6 months of the date of publication of the final rule in the Federal Register. This is insufficient time, since the potential lengthy public participation process involved in the submission of State plans under 40 CFR, part 256, could preclude a timely approval even if it went smoothly. So there would still be dual State and Federal implementation for a time period past 6 months.    Solid waste management plans also fall short on full State implementation because, even after passage and approval of the plans, as stated in the preamble of the rule, EPA approval of a State solid waste management plan does not mean that the State program operates in lieu of the Federal program. Thus, the plans would not fully alleviate dual implementation of State and Federal standards.    In the preamble, the EPA states that a facility that operates in accordance with an approved solid waste management plan will be able to beneficially use that fact in a citizen suit brought to enforce the Federal criteria. This is subjective and speculative, as no one with absolute certainty can predict a court's decision. Further, citizen suits filed in different jurisdictions can result in individual courts interpreting the plan and rule differently, thus rendering different decisions that lead to inconsistent implementation of the rule.    There is also a concern that more sections of the solid waste management plan than the narrow reopening of the plan to incorporate CCR rule would be reviewed by EPA and potentially require additional revisions to the State plans that may be beyond the scope of CCRs.    ASTSWMO believes that legislation such as H.R. 2218 that was passed by the House in the last Congress would provide for the certainty of State primacy in implementation through State permit programs for CCR, enforceable by the State, and provide a clearer and consistent understanding of the permitting and enforcement rules of the State. State permit programs for CCR would have the additional benefit of allowing flexibility for States to have regionally appropriate State standards.    In conclusion, we appreciate EPA's decision to regulate CCRs under Subtitle D and providing a mechanism within the confines of part 257 for implementation of the rule by the States. However, the revision of the solid waste management plan does not fully eliminate dual implementation of CCR regulatory programs. ASTSWMO looks forward to working closely with the EPA and Congress regarding the CCR rule implementation.    Thank you again for the opportunity to provide this testimony, and I will be here for questions.</t>
   </si>
   <si>
@@ -667,9 +622,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you, Mr. Chairman. And good afternoon. My name is Lisa Johnson, and I am the CEO and general manager at Seminole Electric Cooperative, headquartered in Tampa, Florida.    Seminole is one of the largest not-for-profit generation and transmission cooperatives in the country. Seminole is owned by nine not-for-profit consumer-owned electric cooperatives, and, collectively, we provide safe, reliable, competitively priced electricity to more than 1 million consumers and businesses in parts of 42 Florida counties.    On behalf of Seminole and the National Rural Electric Cooperative Association, I would like to thank you for your time this morning as I present our testimony on this important issue.    Seminole would like to acknowledge that we support the Environmental Protection Agency's decision to designate coal combustion residuals, or CCRs, as nonhazardous. The EPA's approach, supported by data from its own investigations, balances the need to protect public health and the environment without creating an undue burden on affected facilities.    Even with a nonhazardous final rule, we are seeking your support to provide additional legislative certainty.    Seminole owns and operates Seminole Generating Station, or SGS, a 1,300-megawatt coal-fired power plant in Putnam County, Florida, employing nearly 300 hardworking, skilled Floridians. SGS has more than $530 million of environmental control equipment, making it one of the cleanest coal-based power plants in the U.S.    Seminole generates approximately 800,000 tons of CCRs per year. However, Seminole recycles more than two-thirds or roughly 530,000 tons per year of our CCRs to produce wallboard, cement, and concrete block.    At SGS, one CCR material is converted into synthetic gypsum and sold to Continental Building Products. Continental is a wallboard production facility specifically constructed in 2000 to utilize the synthetic gypsum from SGS.    Since 2000, more than 7 million tons of this CCR material have been converted into wallboard--wallboard used to build homes and businesses throughout Florida and the country.    Seminole also recycles all of the facility's bottom ash to manufacture cement and stronger, lighter concrete block. If not used beneficially, these byproducts would have been placed in a landfill.    In 2009, Seminole received a sustainable leadership award from the Council for Sustainable Florida for our beneficial reuse of CCRs. And SGS was named one of the top six coal plants in the world by Power Magazine for our recycling practices and environmental accomplishments.    One of Seminole's most important goals is to operate our power plants in a safe, environmentally responsible manner and in full compliance with all permits issued by the Florida Department of Environmental Protection and the EPA, bringing us to one of our concerns with the new rule.    While EPA will now regulate CCRs as nonhazardous, the rule is self-implementing, which means facilities covered by the rule must comply with the Federal rule regardless of adoption by the State. For example, should Florida adopt the EPA's final rule, the Federal rule also remains in place, creating dueling regulatory regimes.    As a self-implementing final rule, the typical method for a State or citizen group to check compliance at a facility that may or may not be adhering to the rule is to file suit against the facility. This could result in frivolous and costly legal disputes in Federal district courts, where the resulting interpretations and penalties could vary significantly. For not-for-profit electric cooperatives, this is especially troublesome, as any costs incurred must be passed on to the consumer-owners at the end of the line.    We ask that you eliminate the legal double-jeopardy aspect of this rule if a State fully adopts the EPA's new final rule.    The next major concern we have with the rule is the complete lack of certainty that CCRs will continue to be regulated as nonhazardous. For Seminole, this is extremely problematic, as a major component of SGS design is based on our environmental control systems and our recycling practices. Should EPA decide to regulate CCRs as hazardous at a later time, Seminole would be forced to dispose of CCRs, turning a beneficially used product into an expensive landfilled waste stream, driving up the cost of electricity for our cooperative consumers.    On numerous occasions, the EPA has determined that CCRs are not hazardous, and there are no new findings to justify a change in EPA's determination. We ask that you end the continuous reevaluation process and confirm that CCRs are and will continue to be regulated as nonhazardous.    For Seminole and other affected facilities, we are seeking regulatory certainty so that we can continue to provide safe, reliable, and affordable electricity while fully complying with all applicable rules, regulations, and laws.    On behalf of Seminole and NRECA, I thank you for the opportunity to meet with you today and share our views on this very important rule.</t>
   </si>
   <si>
@@ -679,27 +631,18 @@
     <t>Washington, DC. We are headquartered in Farmington Hills, Michigan, and have a staff of two full-time employees. We rely on volunteer members to accomplish our work, which is mostly technical.    I would like to emphasize that, while we have some of the largest utilities in the country as members, most of our members are small businesses, comprised of people who have dedicated their entire career to the cause of beneficial use and improving our environment. It is these small businesses that were hurt most by the regulatory uncertainty EPA created in 2009 when it suggested the possibility of ``hazardous waste'' designation for coal-ash management.    There are many good reasons to view coal ash as a resource rather than a waste. Using it conserves natural resources, saves energy, and significantly reduces greenhouse gas emissions from the manufacturing of products that it replaces.    In many cases, products manufactured with coal ash perform better than products made without it. For example, the American Road and Transportation Builders Association determined that the use of coal ash in concrete roads and bridges saves departments of transportation across the country over $5 billion per year.    It is important to remember in this conversation that coal ash has never qualified as hazardous waste based on its toxicity. It does contain trace amounts of metals, and those metals are found at similar levels in soils and hundreds of household items. An ACAA study released in 2012 analyzed data from the U.S. Geological Survey which showed that concentration of metals and coal ash, with very few exceptions, are below environmental screening levels for residential soils and are similar to the concentrations found in common dirt. Despite a drumbeat of publicity by anti-coal environmental groups, coal ash is no more toxic than the manufactured materials it replaces.    Unfortunately, this discussion has had real-world negative consequences for the beneficial use of coal ash. When EPA began discussing a potential ``hazardous waste'' designation for coal ash in 2009, the Agency cast a cloud over beneficial use that caused coal-ash users across the Nation to decrease beneficial-use activities. The volume of coal ash used since 2008 has declined every year since that year.    The decline of beneficial use stands in stark contrast to the previous decade's trend, when in the year 2000 the recycling volume was 32.1 million tons at the time when the EPA issued its final regulatory determination that the regulation of coal-ash management as hazardous waste was not warranted. Over the next 8 years, with EPA encouragement, coal-ash beneficial use skyrocketed to 60.6 million tons and almost a 100 percent increase in the use. According to the most recently released data from 2013, 51.4 million tons of CCPs were beneficially used, down from 51.9 million in 2012 and well below the 2008 peak.    The great irony of this lengthy debate over coal-ash disposal regulations is that the debate caused more ash to be disposed. If the past 5 years had simply remained equal to 2008's utilization, we would have seen 26.4 million tons less coal ash put into landfills and impoundments.    The ACAA appreciates EPA's final decision to regulate coal ash as nonhazardous. We believe this decision puts science ahead of politics and clears the way for the beneficial use of coal ash to begin growing again, thereby keeping millions of tons out of landfills and ponds in the first place.    We are also painfully aware, however, that EPA has made final decisions before, only to reverse course in the future. A hazardous-versus-nonhazardous debate occurred prior to the Agency's 2000 final determination, which 8 years later turned out to be not so final.    Additionally, the final rule's preamble states that the rule defers final double regulatory determination with respect to CCR that is disposed in landfills and CCR surface impoundments until additional information is available on a number of key technical and policy questions. Apparently, 34 years of study, 2 reports to Congress, 2 formal regulatory determinations, and a final rule issued after a 6-year rulemaking process may not be enough for EPA to make a truly final final determination.    Bills previously passed by the House would resolve these issues permanently. The bills would put enforcement responsibility authority in the hands of professional State environmental regulators and expand EPA's authority to step in if States don't do the job. ACAA supports this approach as better public policy.    We would like to thank you, Mr. Chairman, for this committee's diligence in addressing this issue. We believe it is important to keep beneficial use at the forefront of U.S. coal management policy. The best solution to disposal problems is not to dispose.    Mr. Shimkus. Thank you very much.    The Chair now recognizes Mr. James Roewer, executive director of Utilities Solid Waste Activities Group, on behalf of the Edison Electric Institute.    Welcome, sir. You have got 5 minutes.</t>
   </si>
   <si>
-    <t>Roewer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roewer. Good morning, Chairman Shimkus, Ranking Member Tonko, members of the committee. I am Jim Roewer, executive director of the Utility Solid Waste Activities Group, or USWAG. I am pleased to present this statement on beside of USWAG, the Edison Electric Institute, and the American Public Power Association.    We support EPA's decision to regulate coal ash as a nonhazardous waste, a decision which is consistent with the rulemaking record and with the EPA's previous regulatory determinations that coal ash does not warrant regulation as a hazardous waste.    Our longstanding position is that EPA should develop a regulatory program for coal ash patterned after the Federal regulations in place for municipal solid waste landfills. They would include design standards, location restrictions, dust controls, groundwater monitoring and corrective action, as well as structural stability controls for coal ash surface impoundments.    However, while we support EPA's regulation of coal ash as a nonhazardous waste, there are serious flaws in the new rule due to statutory limitations. The problem is that RCRA's subtitle D program does not authorize the implementation of Federal rules through State permit programs, nor does it allow EPA enforcement of those rules. The only exceptions are the provisions under which EPA issued municipal solid waste landfill rules, which are enforceable through State permit programs with backup EPA enforcement authority.    USWAG urged EPA to use that authority in issuing this rule, but EPA determined it could not. We are therefore left with a rule that cannot be delegated to States and in which EPA has no enforcement role. Because the rule cannot be delegated to the States, it is self-implementing. And relegated new facilities must comply with the rules requirement irrespective of whether it is adopted by the States. Even if adopted by a State, the Federal rule remains in place as an independent set of criteria that must be met. EPA is clear on this point. It cannot, this rule--the State program cannot operate in lieu of a Federal program. This will result in dual and potentially inconsistent Federal and State requirements. Most troubling, we are hearing that some States might not even attempt to adopt the new rule, which will guarantee new regulation.    In addition, the rule's only compliance mechanism is for a State or citizen group to bring a RCRA citizen suit in Federal district court. In fact, we believe this is the only Federal environmental law that is implemented in that and enforced in that way. This means legal disputes regarding compliance with any aspect of the rule will be determined on a case-by-case basis by different Federal district courts around the country.    Federal judges will be making complex technical decisions regarding regulatory compliance, instead of allowing these issues to be resolved by regulatory agencies that have the technical expertise and experience necessary to answer such questions. This is likely to produce differing and inconsistent decisions regarding the scope and applicability of the rule, depending on where a citizen suit is brought, and will undermine the uniform application of the rule. This is not a sound strategy for implementing a complex Federal environmental program that has such significant implications for the power generation industry.    Because the rule is self-implementing, EPA dropped risk-based options for implementing elements of the groundwater monitoring program and for conducting cleanups, reasoning that such risk-based decisions require regulatory oversight. As a result, the Federal rule effectively overrides existing State risk-based regulatory programs for coal ash that have been proven protective of human health and the environment.    Some of our members are in the middle of implementing long-term site specific closures or cleanups for coal ash facilities. We are concerned that the Federal rule's lack of recognition of State risk-based closure or cleanup programs may effectively negate these efforts.    The rule also regulates inactive impoundments, impoundments no longer receiving coal ash but which contain water and have not closed. We fully appreciate such inactive sites may pose risks and steps should be taken to address those risks. However, we do not believe the EPA has the authority to subject past disposal practices to regulations for active--designed for active units, as the agency has done in this rule.    Congress has authorized EPA to address risk from past disposal under Superfund and by issuing site-specific remedial orders if past disposal poses an imminent and substantial endangerment. If EPA wants additional authority, we believe the statute must be amended to grant EPA such authority.    Finally, the rule does not provide the desired certainty that coal ash will not be regulated as a hazardous waste. EPA makes clear that it will, at some point in the future, issue a now regulatory determination regarding whether coal ash warrants hazardous waste regulation. While EPA has for now settled on the nonhazardous waste option, the Agency leaves the door open to revising the rules and regulating coal ash as a hazardous waste. This raises serious concerns.    Companies across the country will be investing huge resources to come into compliance with the new rule, even as EPA contemplates establishing a whole new regulatory program that could effectively negate these huge capital expenditures. We need regulatory certainty regarding the status of coal ash under RCRA. This rule does not provide that.    I would like to thank the opportunity--I would like to thank the subcommittee for the opportunity to present these views and would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    The Chair now recognizes Mr. Schaeffer, director of Environmental Integrity Projects.    Sir, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Schaeffer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schaeffer. Thank you, Mr. Chairman, and members of the committee. Thank you for the opportunity to testify. I am Eric Schaeffer, director of the Environmental Integrity Project. We work with citizens who live and work around coal ash sites. And as certainty seems to be the theme for the hearing, I would like the speak to what certainty might mean to those good people, some of whom have been living with this problem for a very long time.    First, I really don't think the folks in these communities care whether you call it hazardous or whether you call it peanut butter. They want coal ash out of their groundwater. They don't want it in their lungs, and they would rather not have 39 million tons of it dumped in their river as Duke Energy did to the good people of North Carolina less than a year ago. We hear that those kinds of problems are things of the past; they aren't going to happen again. I will return to that, but, obviously, they did happen.    So really the question is whether EPA's rule or anything Congress does gives people most affected by coal ash pollution the kind of certainty they are looking for. I just want to point out that this issue has been bumped around for about 30 years. In that time, a lot of these disposal sites, which are nothing more than holes in the ground, have deteriorated. The cost of responding to spills and the resulting contamination from just six companies now exceeds $10 billion. That is based on Securities and Exchange Commission disclosures. That number is going to climb, whatever happens; 30 years of no regulation, a bill comes with that, and that bill is coming due.    Touching briefly on the rule, like everybody here, we like some parts, we don't like others, not too unusual for an EPA outcome. The siting and structural stability requirements could be helpful and could prevent the kind of catastrophic spills we have seen. Monitoring requirements are a good start, especially if the data is put online and you don't have to pay hundreds of dollars to obtain it, which you do in many States today.    I do have to say, though, it has some big loopholes. There is no cleanup standard for boron. That is one of the most pervasive pollutants, and it is found at levels far above health standards at many coal ash sites.    Also, it is important to understand nobody is going to get wind burn complying with the deadlines in EPA's rule, some of which stretch literally from here to eternity. This is not a fast-paced set of standards, and I encourage you to look at those deadlines.    Before moving forward, I would respectfully ask that you consider two things, two actions. First, I think you should invite Duke Energy to appear before this subcommittee to talk about the spill that happened less than a year ago because it is important to get an understanding of the problem before turning to a solution. You can then, with that information, decide whether EPA has addressed the problem.    Here is what Duke said in 2009: We are confident, based on our ongoing monitoring, maintenance, and inspections, that each of our ash basins has the structural integrity necessary to protect the environment.    So if you called in Duke Energy, you could ask them about Dan River--because the statement was made about Dan River--so what the heck happened? Is it going to happen again? Are you certain it is not going to happen again, and how are you certain?    North Carolina passed a law in the wake of that spill that requires shutdown of active ash impoundments at active plants in less than 4 years, a lot faster than EPA requires. Duke Energy supported that bill. You might ask them why they supported it and why those requirements wouldn't apply in a place like Indiana where Duke also has plants. That is certainty. They have to close by date certain. Couldn't be clearer.    I would also hope that you consider giving citizens who were affected by the coal ash pollution a chance to speak to you directly without interpreters, without lobbyists. I would gladly give my seat up so you could hear from them. I am sure Jim would do the same thing. You can hear from them directly about what it has been like and ask them what kind of certainty they are looking for.    I think you will hear they would the certainty that leaking dumps will be closed and cleaned up sometime in their lifetime. I think you will hear that many of them have been waiting a long time. I think they will want the certainty they won't get stuck with the bill for that cleanup. They would like the certainty that their ash pond is not going to collapse and fall on top of them and dump ash into the river. I think they would like the certainty they can bring their own legal action if the State doesn't do anything. I think you will hear that, but let them tell you directly.    I will just say, in closing, the citizens have worked on these issues for a long time. They really do deserve to be heard from. I hope you will give them that chance.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    You all have done a great job. We have gotten through the opening statements.    Last but not least, Mr. Holleman, senior attorney for the Southern Environmental Law Center.    Sir, welcome, and you have 5 minutes.</t>
   </si>
   <si>
-    <t>Holleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Holleman. Well, thank you, Mr. Chairman and Mr. Tonko and other members of the committee for the opportunity to be here.    My name is Frank Holleman, and I live in Greenville, South Carolina. I am at the Southern Environmental Law Center, and we work with local citizens in the South concerned about their natural resources. A committee like this in Washington usually hears from representatives of Government agencies and trade associations. Today, I want to convey to you all the concerns of local people who want to see their communities prosper and their local rivers protected.    Let's look for a minute what we are facing in the Southeast. The utilities have dug unlined pits in wetlands and right beside our drinking water resources. They have put millions of tons of industrial waste containing toxics, like arsenic and lead, into these unlined pits, and they have filled them full of water. These millions of wet tons of waste are contained only by earthen dikes that leak. The toxic substances in this industrial waste leach into the groundwater, which then flows into the rivers and towards neighborhoods. This situation is made worse because most of these pits are decades old and their infrastructure is rotting.    We have had two catastrophic failures from this coal ash storage in the south, by TVA at Kingston, Tennessee, and by Duke Energy in the Dan River in North Carolina and Virginia. One local water system is being forced to abandon public drinking water wells. Fish have been killed in the hundreds of thousands. Property values of nearby landowners have been affected, and groundwater has been contaminated with substances like arsenic.    My main point is this today, that Congress should not take away from the--should not take away the rights of the local communities to protect themselves from this dangerous coal ash storage. The Congress should not leave the future of these people to Government bureaucracies alone. The citizen's right to enforce a new EPA rule is essential. Now what we have seen in the Southeast is clear: The State agencies have not effectively enforced the law against these politically powerful entities. Let me give you examples.    In South Carolina, where I spent virtually all of my life, it has been clear for years that unlined coal ash storage by our three utilities violate antipollution laws, yet no Government agency has taken action to force a cleanup. Local organizations instead enforce the law with the result today that all three utilities in our State are cleaning up every water-filled riverfront coal ash lagoon they operate in the State. And they are creating jobs. They are promoting recycling. And one of our utilities calls these cleanups a win-win for all concerned.    In North Carolina, nothing was happening to force Duke Energy, which has a statewide monopoly to clean up its coal ash lagoons. Local community organizations, not the State, had to take the initiative to enforce clean water laws. For the first time, North Carolina was forced to take action and confirmed under oath that Duke Energy is violating State or Federal clean water laws or both everywhere it stores coal ash in the State and, under oath, that this polluting storage is a serious threat to the public health, safety, and welfare.    Now a Federal criminal grand jury is investigating both Duke Energy and the State environmental agency. And as a result, Duke has pledged to clean up 4 of its 14 sites and to look at all the rest.    In Tennessee, TVA continues, after Kingston, to store coal ash in unlined polluting pits. Local citizens groups enforce the Clean Water Act and only in response to that pressure, the State of Tennessee has now confirmed, under oath, that TVA has been and is violating Tennessee environmental laws by its coal ash storage on the Cumberland River near Nashville.    In the South, we have seen that the people must have the power to protect themselves and to enforce the law. The citizen's right to enforce a new EPA rule is a principal reason to have hope that these minimum Federal criteria will play a role in cleaning up a legacy of dangerous coal ash storage in our Southeast. Thank you.</t>
   </si>
   <si>
@@ -920,9 +863,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Latta. Mr. Adams.</t>
-  </si>
-  <si>
-    <t>Adams</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Adams. I think in terms of the effect on the market so far, it is too early to tell if there has been a positive effect. We have heard many comments that people are happy that EPA has gone with subtitle D, but it is troubling to have that language in the preamble that they may want to go back and revisit the Bevill exemption. Again, they said it in 1993; they said it in the year 2000; they now said it again that coal ash didn't warrant hazardous waste management. But then they come back and say, well, we might need to revisit again. We need action by Congress to put an end to that chain of events.</t>
@@ -1345,11 +1285,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1371,11 +1309,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1395,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1423,11 +1357,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1447,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1473,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1499,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1527,11 +1453,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1551,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1579,11 +1501,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1603,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1631,11 +1549,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1655,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1683,11 +1597,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1707,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1735,11 +1645,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1759,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1787,11 +1693,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1811,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1839,11 +1741,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1863,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1891,11 +1789,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1915,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1943,11 +1837,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1967,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1995,11 +1885,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2019,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2047,11 +1933,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2071,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2099,11 +1981,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2123,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2149,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2175,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2201,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2227,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2253,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2279,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2305,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2331,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2357,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2383,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2411,11 +2269,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2435,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2461,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2489,11 +2341,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2513,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2539,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2565,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2591,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2617,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2645,11 +2485,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2669,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2695,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2721,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2747,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2773,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2799,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2825,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2851,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2877,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2903,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2929,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2955,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2981,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3007,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3033,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3061,11 +2869,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3087,11 +2893,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3111,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3137,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3163,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3189,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3215,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3241,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3267,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3293,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3319,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3345,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3371,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3397,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3423,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3449,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3475,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3501,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3527,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3553,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3579,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3605,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3631,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3657,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3685,11 +3445,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3709,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3735,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3761,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3787,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3813,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3839,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3865,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3891,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3917,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
-      </c>
-      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>114</v>
-      </c>
-      <c r="H101" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3943,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3969,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3995,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4021,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4047,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4073,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4101,11 +3829,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4125,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
-      </c>
-      <c r="G109" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4151,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4177,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4205,11 +3925,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4229,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4255,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4281,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4307,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4333,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4359,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4385,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4411,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4437,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>135</v>
-      </c>
-      <c r="G121" t="s">
-        <v>136</v>
-      </c>
-      <c r="H121" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4463,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4489,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4515,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4541,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4567,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4593,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4619,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4645,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4671,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4697,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4723,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4749,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4777,11 +4453,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4803,11 +4477,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4827,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4853,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4879,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4905,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4931,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
-      </c>
-      <c r="G140" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4957,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4983,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G142" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5009,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5035,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
-      </c>
-      <c r="G144" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5061,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5087,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
-      </c>
-      <c r="G146" t="s">
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>161</v>
-      </c>
-      <c r="H146" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5115,11 +4765,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5139,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>174</v>
-      </c>
-      <c r="G148" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5165,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
-      </c>
-      <c r="G149" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5191,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>174</v>
-      </c>
-      <c r="G150" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5217,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
-      </c>
-      <c r="G151" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5243,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>174</v>
-      </c>
-      <c r="G152" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5271,11 +4909,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5295,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5321,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5347,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5373,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
-      </c>
-      <c r="G157" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5399,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5427,11 +5053,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5451,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5477,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5503,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
-      </c>
-      <c r="G162" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5529,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5555,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5581,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5607,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
-      </c>
-      <c r="G166" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5633,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5659,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5685,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5711,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5737,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
-      </c>
-      <c r="G171" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5763,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5789,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
-      </c>
-      <c r="G173" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5815,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5841,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5867,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5893,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5919,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5945,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5971,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" t="s">
-        <v>188</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5999,11 +5581,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6023,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
-      </c>
-      <c r="G182" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6051,11 +5629,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6075,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6103,11 +5677,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6127,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>216</v>
-      </c>
-      <c r="G186" t="s">
-        <v>217</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6155,11 +5725,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6181,11 +5749,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6205,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
-      </c>
-      <c r="G189" t="s">
-        <v>221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6233,11 +5797,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6257,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
-      </c>
-      <c r="G191" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6285,11 +5845,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6309,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
-      </c>
-      <c r="G193" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6337,11 +5893,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6361,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
-      </c>
-      <c r="G195" t="s">
-        <v>217</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6389,11 +5941,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6413,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
-      </c>
-      <c r="G197" t="s">
-        <v>221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6441,11 +5989,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6465,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
-      </c>
-      <c r="G199" t="s">
-        <v>221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6493,11 +6037,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6517,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
-      </c>
-      <c r="G201" t="s">
-        <v>221</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6545,11 +6085,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6569,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
-      </c>
-      <c r="G203" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6597,11 +6133,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6621,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
-      </c>
-      <c r="G205" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6649,11 +6181,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6673,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
-      </c>
-      <c r="G207" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6701,11 +6229,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6725,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
-      </c>
-      <c r="G209" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6753,11 +6277,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6777,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
-      </c>
-      <c r="G211" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6805,11 +6325,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6829,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6855,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
-      </c>
-      <c r="G214" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6881,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6907,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
-      </c>
-      <c r="G216" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6933,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6959,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
-      </c>
-      <c r="G218" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6987,11 +6493,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7011,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
-      </c>
-      <c r="G220" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7037,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
-      </c>
-      <c r="G221" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7065,11 +6565,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7089,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>64</v>
-      </c>
-      <c r="G223" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7115,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7141,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
-      </c>
-      <c r="G225" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7167,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7193,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
-      </c>
-      <c r="G227" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7219,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7245,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
-      </c>
-      <c r="G229" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7271,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7299,11 +6781,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7323,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
-      </c>
-      <c r="G232" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7351,11 +6829,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7375,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
-      </c>
-      <c r="G234" t="s">
-        <v>224</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7403,11 +6877,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7427,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
-      </c>
-      <c r="G236" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7455,11 +6925,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7479,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7507,11 +6973,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7531,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>129</v>
-      </c>
-      <c r="G240" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7557,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
-      </c>
-      <c r="G241" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7583,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
-      </c>
-      <c r="G242" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7609,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>129</v>
-      </c>
-      <c r="G243" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7635,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
-      </c>
-      <c r="G244" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7661,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>129</v>
-      </c>
-      <c r="G245" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7687,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>31</v>
-      </c>
-      <c r="G246" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7713,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>129</v>
-      </c>
-      <c r="G247" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7739,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>31</v>
-      </c>
-      <c r="G248" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7765,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>129</v>
-      </c>
-      <c r="G249" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7791,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
-      </c>
-      <c r="G250" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7817,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>129</v>
-      </c>
-      <c r="G251" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7843,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
-      </c>
-      <c r="G252" t="s">
-        <v>227</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7871,11 +7309,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7895,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>174</v>
-      </c>
-      <c r="G254" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7923,11 +7357,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7947,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>174</v>
-      </c>
-      <c r="G256" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7973,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>31</v>
-      </c>
-      <c r="G257" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7999,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>174</v>
-      </c>
-      <c r="G258" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8025,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
-      </c>
-      <c r="G259" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8051,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>174</v>
-      </c>
-      <c r="G260" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8077,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
-      </c>
-      <c r="G261" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8103,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>174</v>
-      </c>
-      <c r="G262" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8129,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
-      </c>
-      <c r="G263" t="s">
-        <v>213</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8155,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>174</v>
-      </c>
-      <c r="G264" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8181,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>216</v>
-      </c>
-      <c r="G265" t="s">
-        <v>217</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8207,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>174</v>
-      </c>
-      <c r="G266" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8233,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
-      </c>
-      <c r="G267" t="s">
-        <v>302</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8259,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>174</v>
-      </c>
-      <c r="G268" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8285,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
-      </c>
-      <c r="G269" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8311,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>174</v>
-      </c>
-      <c r="G270" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8337,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
-      </c>
-      <c r="G271" t="s">
-        <v>210</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8363,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>174</v>
-      </c>
-      <c r="G272" t="s">
-        <v>175</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8391,11 +7789,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8417,11 +7813,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
